--- a/Files/Tables/Exotic Weapons.xlsx
+++ b/Files/Tables/Exotic Weapons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>WEAPON</t>
   </si>
@@ -71,6 +71,9 @@
       </rPr>
       <t xml:space="preserve"> of the mod</t>
     </r>
+  </si>
+  <si>
+    <t>BONUS</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J7"/>
+  <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,8 +496,8 @@
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -505,7 +508,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -514,8 +517,8 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -542,6 +545,9 @@
       </c>
       <c r="J7" t="s">
         <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
